--- a/similarities/split_global/harmonic_similarity_timestamps_58.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:02:11.140000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
+          <t>('0:00:13.336043', '0:00:26.115071')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.160000', '0:00:25.400000')]</t>
+          <t>('0:00:01.240000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:06.820000')]</t>
+          <t>('0:00:29.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Ab:7', 'Eb', 'Eb:7', 'Ab:7', 'Eb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F', 'Bb:7', 'F', 'F:7', 'Bb:7', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:29.740000', '0:01:12.890000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:20.910000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=29.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.630000', '0:00:16.560000')]</t>
+          <t>('0:00:06.610000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:20.060000', '0:00:22.100000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=12.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:14.440000', '0:00:41.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
+          <t>('0:00:00.421247', '0:00:03.083177')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=90.92']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
+          <t>('0:00:51.839081', '0:01:03.042709')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:02:20.580000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:26.520000', '0:02:59.420000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:45.540000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=146.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E'], ['E', 'A', 'E']]</t>
+          <t>['C#/F', 'A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:05.956303'), ('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:01:09', '0:01:14.900000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:35.140000', '0:00:43.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=35.14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:00:16.840000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:42.610000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'D/3', 'D:7/2']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['E:maj/B', 'B:maj', 'B:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:36.405260', '0:00:40.062403')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000')]</t>
+          <t>('0:02:06.620000', '0:02:16.220000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=36.40526</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=126.62</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
